--- a/CoreRulebook/Data/Items/generic.xlsx
+++ b/CoreRulebook/Data/Items/generic.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE395718-1514-4B27-AD9D-5F9AC0512290}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB60A340-1DD9-4726-A3DB-69D792FDB62F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="1125" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -25,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
   <si>
     <t>Name</t>
   </si>
@@ -99,15 +107,6 @@
     <t>Chest</t>
   </si>
   <si>
-    <t>Clothes (adventuring)</t>
-  </si>
-  <si>
-    <t>Clothes (common)</t>
-  </si>
-  <si>
-    <t>Clothes (fine)</t>
-  </si>
-  <si>
     <t>Crowbar</t>
   </si>
   <si>
@@ -123,12 +122,6 @@
     <t>Fishing Rod</t>
   </si>
   <si>
-    <t>Floo Powder (5 uses)</t>
-  </si>
-  <si>
-    <t>Can be used to navigate from one fireplace on the Floo network to another.</t>
-  </si>
-  <si>
     <t>Glass Vial</t>
   </si>
   <si>
@@ -198,9 +191,6 @@
     <t>Perfume (vial)</t>
   </si>
   <si>
-    <t>Pole (10 ft)</t>
-  </si>
-  <si>
     <t>Potion: Antidote</t>
   </si>
   <si>
@@ -258,21 +248,6 @@
     <t>May be splashed on a melee opponent, or used as an improvised Ranged weapon, following the normal rules. In either case, do 3d4 Celestial damage.</t>
   </si>
   <si>
-    <t>Ammunition (10 Arrows)</t>
-  </si>
-  <si>
-    <t>Ammunition (10 Bolts)</t>
-  </si>
-  <si>
-    <t>Ammunition (20 Blowgun Needles)</t>
-  </si>
-  <si>
-    <t>Ammunition (20 Slingshot Bullets)</t>
-  </si>
-  <si>
-    <t>Ammunition (20 Rifle bullets)</t>
-  </si>
-  <si>
     <t>Heavy</t>
   </si>
   <si>
@@ -301,6 +276,63 @@
   </si>
   <si>
     <t>Not particularly nourishing, but enough to fill you up and keep you alive and kicking.</t>
+  </si>
+  <si>
+    <t>GPBCost</t>
+  </si>
+  <si>
+    <t>BaseKnuts</t>
+  </si>
+  <si>
+    <t>Galleons</t>
+  </si>
+  <si>
+    <t>Sickles</t>
+  </si>
+  <si>
+    <t>Knuts</t>
+  </si>
+  <si>
+    <t>RoundSickles</t>
+  </si>
+  <si>
+    <t>RoundKnuts</t>
+  </si>
+  <si>
+    <t>StringGalleon</t>
+  </si>
+  <si>
+    <t>StringSickle</t>
+  </si>
+  <si>
+    <t>StringKnut</t>
+  </si>
+  <si>
+    <t>Arrows (10)</t>
+  </si>
+  <si>
+    <t>Crossbow Bolts (10)</t>
+  </si>
+  <si>
+    <t>Slingshot Bullets (10)</t>
+  </si>
+  <si>
+    <t>Blowgun Needles (20)</t>
+  </si>
+  <si>
+    <t>Firearm Bullets (20)</t>
+  </si>
+  <si>
+    <t>Floo Powder Pouch</t>
+  </si>
+  <si>
+    <t>Can be used to navigate from one fireplace on the Floo network to another. Each pouch contains enough powder for 5 journeys.</t>
+  </si>
+  <si>
+    <t>A large wooden structure, bound with iron bars. Useful for storage, with an interior volume of 150L.</t>
+  </si>
+  <si>
+    <t>Pole (3 m)</t>
   </si>
 </sst>
 </file>
@@ -653,762 +685,3249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="84.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>10</v>
+      <c r="C2" s="1" t="str">
+        <f>CONCATENATE(M2,N2,O2)</f>
+        <v>\sickle{4}~</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <f>E2*493/50</f>
+        <v>118.32</v>
+      </c>
+      <c r="G2">
+        <f>FLOOR(F2/493,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>FLOOR((F2-493*G2)/29,1)</f>
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <f>FLOOR((F2-493*G2-29*H2),1)</f>
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <f>IF(G2&gt;0,ROUND(H2/5,0)*5,H2)</f>
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <f>IF(J2&gt;0,ROUND(I2/5,0)*5,I2)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" t="str">
+        <f>IF(G2&gt;0,CONCATENATE("\galleon{",G2,"}~"),"")</f>
+        <v/>
+      </c>
+      <c r="N2" t="str">
+        <f>IF(J2&gt;0,CONCATENATE("\sickle{",J2,"}~"),"")</f>
+        <v>\sickle{4}~</v>
+      </c>
+      <c r="O2" t="str">
+        <f>IF(G2&gt;0,"",IF(K2&gt;0,CONCATENATE("\knut{",K2,"}"),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="str">
+        <f t="shared" ref="C3:C63" si="0">CONCATENATE(M3,N3,O3)</f>
+        <v>\sickle{4}~</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F57" si="1">E3*493/50</f>
+        <v>118.32</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G57" si="2">FLOOR(F3/493,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H57" si="3">FLOOR((F3-493*G3)/29,1)</f>
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I57" si="4">FLOOR((F3-493*G3-29*H3),1)</f>
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J57" si="5">IF(G3&gt;0,ROUND(H3/5,0)*5,H3)</f>
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K57" si="6">IF(J3&gt;0,ROUND(I3/5,0)*5,I3)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M57" si="7">IF(G3&gt;0,CONCATENATE("\galleon{",G3,"}~"),"")</f>
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N57" si="8">IF(J3&gt;0,CONCATENATE("\sickle{",J3,"}~"),"")</f>
+        <v>\sickle{4}~</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O57" si="9">IF(G3&gt;0,"",IF(K3&gt;0,CONCATENATE("\knut{",K3,"}"),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{4}~</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>118.32</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{4}~</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{1}~</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>29.58</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{1}~</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{2}~</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>59.16</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{2}~</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{10}~</v>
+      </c>
+      <c r="E7">
+        <v>29.5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>290.87</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{10}~</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
-        <v>25</v>
+      <c r="C8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{8}~\knut{15}</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>246.5</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{8}~</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="9"/>
+        <v>\knut{15}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\galleon{1}~\sickle{5}~</v>
+      </c>
+      <c r="E9">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>591.6</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="7"/>
+        <v>\galleon{1}~</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{5}~</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10">
-        <v>5</v>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{1}~\knut{20}</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>49.3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{1}~</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="9"/>
+        <v>\knut{20}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{5}~</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11">
         <v>15</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>147.9</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{5}~</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
-        <v>20</v>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{6}~\knut{25}</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>197.2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{6}~</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="9"/>
+        <v>\knut{25}</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="C13">
-        <v>1</v>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\knut{9}</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>9.86</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="9"/>
+        <v>\knut{9}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C14">
-        <v>10</v>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{3}~\knut{10}</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>98.6</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{3}~</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="9"/>
+        <v>\knut{10}</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15">
-        <v>35</v>
+        <v>71</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{12}~</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>35.5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>350.03</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{12}~</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\knut{19}</v>
+      </c>
+      <c r="E16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>19.72</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="9"/>
+        <v>\knut{19}</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\galleon{1}~</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>493</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="7"/>
+        <v>\galleon{1}~</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{3}~\knut{10}</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>98.6</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{3}~</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="9"/>
+        <v>\knut{10}</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{3}~\knut{10}</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>98.6</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{3}~</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="9"/>
+        <v>\knut{10}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="C20">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{13}~\knut{15}</v>
+      </c>
+      <c r="E20">
+        <v>40</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>394.4</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{13}~</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="9"/>
+        <v>\knut{15}</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\galleon{1}~</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>493</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="7"/>
+        <v>\galleon{1}~</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{2}~\knut{20}</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>78.88</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{2}~</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="9"/>
+        <v>\knut{20}</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="C23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{5}~</v>
+      </c>
+      <c r="E23">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>147.9</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{5}~</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>31</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\galleon{2}~</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24">
+        <v>100</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>986</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="7"/>
+        <v>\galleon{2}~</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>32</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>60</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{1}~\knut{20}</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>49.3</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{1}~</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="9"/>
+        <v>\knut{20}</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\galleon{1}~</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="E26">
+        <v>50</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>493</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="7"/>
+        <v>\galleon{1}~</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26">
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{5}~</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27">
-        <v>100</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>147.9</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{5}~</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>37</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\knut{19}</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>19.72</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="9"/>
+        <v>\knut{19}</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
-      <c r="C29">
-        <v>50</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="C29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\knut{19}</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>19.72</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="9"/>
+        <v>\knut{19}</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\galleon{20}~</v>
+      </c>
+      <c r="E30">
+        <v>1000</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>9860</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="7"/>
+        <v>\galleon{20}~</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>40</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30">
-        <v>35</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\galleon{3}~</v>
+      </c>
+      <c r="E31">
+        <v>150</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>1479</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="7"/>
+        <v>\galleon{3}~</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{10}~</v>
+      </c>
+      <c r="E32">
+        <v>29.5</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>290.87</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{10}~</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>42</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31">
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{15}~</v>
+      </c>
+      <c r="E33">
+        <v>44.2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>435.81200000000007</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{15}~</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{2}~</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>59.16</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32">
+      <c r="I34">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="K34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{2}~</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>45</v>
       </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{2}~</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>59.16</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{2}~</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>46</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{10}~</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>29.5</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>290.87</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{10}~</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>48</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
-      <c r="C37">
-        <v>5</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="C37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{2}~</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>59.16</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{2}~</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{1}~</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>29.58</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{1}~</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\knut{10}</v>
+      </c>
+      <c r="E39">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>10.846000000000002</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="9"/>
+        <v>\knut{10}</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{2}~</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>59.16</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{2}~</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>51</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{10}~</v>
+      </c>
+      <c r="E41">
+        <v>29.5</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>290.87</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C39">
+      <c r="I41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{10}~</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{8}~\knut{15}</v>
+      </c>
+      <c r="E42">
         <v>25</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>246.5</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{8}~</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="9"/>
+        <v>\knut{15}</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\galleon{1}~</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43">
+        <v>50</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>493</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="7"/>
+        <v>\galleon{1}~</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>53</v>
       </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{10}~\knut{5}</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44">
+        <v>30</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>295.8</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{10}~</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="9"/>
+        <v>\knut{5}</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>54</v>
       </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41">
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\galleon{2}~</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45">
+        <v>100</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>986</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="7"/>
+        <v>\galleon{2}~</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{10}~\knut{5}</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46">
+        <v>30</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>295.8</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{10}~</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="9"/>
+        <v>\knut{5}</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{3}~\knut{10}</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>98.6</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{3}~</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="9"/>
+        <v>\knut{10}</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{2}~\knut{20}</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>78.88</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{2}~</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="9"/>
+        <v>\knut{20}</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\knut{19}</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>19.72</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="9"/>
+        <v>\knut{19}</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{4}~</v>
+      </c>
+      <c r="E50">
+        <v>12</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>118.32</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42">
+      <c r="I50">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43">
+      <c r="J50">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{4}~</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\knut{19}</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>19.72</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" si="9"/>
+        <v>\knut{19}</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{1}~\knut{20}</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>49.3</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{1}~</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="9"/>
+        <v>\knut{20}</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\galleon{1}~\sickle{5}~</v>
+      </c>
+      <c r="E53">
+        <v>60</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>591.6</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46">
-        <v>50</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47">
-        <v>30</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48">
-        <v>100</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49">
-        <v>30</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51">
-        <v>8</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="M53" t="str">
+        <f t="shared" si="7"/>
+        <v>\galleon{1}~</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{5}~</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>63</v>
       </c>
-      <c r="B52" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52">
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{1}~</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>29.58</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{1}~</v>
+      </c>
+      <c r="O54" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\knut{19}</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>64</v>
-      </c>
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55">
-        <v>5</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>19.72</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N55" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="O55" t="str">
+        <f t="shared" si="9"/>
+        <v>\knut{19}</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{1}~\knut{20}</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B56" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>49.3</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{1}~</v>
+      </c>
+      <c r="O56" t="str">
+        <f t="shared" si="9"/>
+        <v>\knut{20}</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>69</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
       </c>
-      <c r="C57">
-        <v>3</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59">
-        <v>5</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60">
+      <c r="C57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{4}~\knut{20}</v>
+      </c>
+      <c r="E57">
         <v>14</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>138.04</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="M57" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N57" t="str">
+        <f t="shared" si="8"/>
+        <v>\sickle{4}~</v>
+      </c>
+      <c r="O57" t="str">
+        <f t="shared" si="9"/>
+        <v>\knut{20}</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C58" s="1" t="str">
+        <f>CONCATENATE(M58,N58,O58)</f>
+        <v/>
+      </c>
+      <c r="M58" t="str">
+        <f t="shared" ref="M58:M66" si="10">IF(G58&gt;0,CONCATENATE(G58,"\galleon{}"),"")</f>
+        <v/>
+      </c>
+      <c r="N58" t="str">
+        <f t="shared" ref="N58:N66" si="11">IF(J58&gt;0,CONCATENATE(H58,"\sickle{}"),"")</f>
+        <v/>
+      </c>
+      <c r="O58" t="str">
+        <f t="shared" ref="O58:O66" si="12">IF(K58&gt;0,CONCATENATE(K58,"\knut{}"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M59" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O59" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M60" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N60" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O60" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O61" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M62" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N62" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O62" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N63" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O63" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C64" s="1" t="str">
+        <f t="shared" ref="C64:C72" si="13">CONCATENATE(M64,N64,O64)</f>
+        <v/>
+      </c>
+      <c r="M64" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N64" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O64" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C65" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="M65" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N65" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O65" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C66" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="M66" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N66" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O66" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C67" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="M67" t="str">
+        <f t="shared" ref="M67:M70" si="14">IF(G67&gt;0,CONCATENATE(G67,"\galleon{}"),"")</f>
+        <v/>
+      </c>
+      <c r="N67" t="str">
+        <f t="shared" ref="N67:N70" si="15">IF(J67&gt;0,CONCATENATE(H67,"\sickle{}"),"")</f>
+        <v/>
+      </c>
+      <c r="O67" t="str">
+        <f t="shared" ref="O67:O70" si="16">IF(K67&gt;0,CONCATENATE(K67,"\knut{}"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C68" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="M68" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="N68" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="O68" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C69" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="M69" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="N69" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="O69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C70" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="M70" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="N70" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="O70" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C71" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C72" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
